--- a/周数据/2017年第52周/《个人上线率统计表》-刘乐乐.xlsx
+++ b/周数据/2017年第52周/《个人上线率统计表》-刘乐乐.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -198,8 +198,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -294,6 +294,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -332,24 +355,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,47 +395,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,6 +488,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -501,6 +525,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,48 +608,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -591,30 +615,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,17 +955,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,40 +1030,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,21 +1052,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1060,10 +1060,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1072,133 +1072,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1272,7 +1272,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1757,7 +1757,7 @@
       <c r="L1" s="30"/>
       <c r="M1" s="50"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" ht="14.25" spans="1:13">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -2020,8 +2020,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2092,7 +2092,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="23">
-        <v>43094</v>
+        <v>43089</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
@@ -7226,8 +7226,8 @@
   <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
